--- a/artfynd/A 61481-2021.xlsx
+++ b/artfynd/A 61481-2021.xlsx
@@ -819,10 +819,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>55773928</v>
+        <v>104427604</v>
       </c>
       <c r="B3" t="n">
-        <v>95717</v>
+        <v>78570</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -831,41 +831,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220686</v>
+        <v>2081</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kambräken</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Blechnum spicant</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Roth</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Mellan Öster-Vike och Sjömyran, Ång</t>
+          <t>Sollefteå, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>573419.838285814</v>
+        <v>573169.9361146218</v>
       </c>
       <c r="R3" t="n">
-        <v>7017474.295048638</v>
+        <v>7017540.184384095</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -889,7 +890,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2015-08-30</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -899,7 +900,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2015-08-30</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -916,42 +917,25 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>1 substratenheter</t>
-        </is>
-      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Magnus Johansson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Magnus Johansson</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104427604</v>
+        <v>104427596</v>
       </c>
       <c r="B4" t="n">
-        <v>78570</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -964,21 +948,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1061,10 +1045,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104427596</v>
+        <v>55773928</v>
       </c>
       <c r="B5" t="n">
-        <v>78569</v>
+        <v>95717</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1073,42 +1057,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>220686</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kambräken</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Blechnum spicant</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Roth</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Sollefteå, Ång</t>
+          <t>Mellan Öster-Vike och Sjömyran, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>573169.9361146218</v>
+        <v>573419.838285814</v>
       </c>
       <c r="R5" t="n">
-        <v>7017540.184384095</v>
+        <v>7017474.295048638</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1132,7 +1115,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2015-08-30</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1142,7 +1125,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2015-08-30</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1159,18 +1142,35 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>1 substratenheter</t>
+        </is>
+      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Johansson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr"/>
+          <t>Magnus Johansson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 61481-2021.xlsx
+++ b/artfynd/A 61481-2021.xlsx
@@ -819,10 +819,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104427604</v>
+        <v>55773928</v>
       </c>
       <c r="B3" t="n">
-        <v>78570</v>
+        <v>95717</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -831,42 +831,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2081</v>
+        <v>220686</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Kambräken</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Blechnum spicant</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Roth</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Sollefteå, Ång</t>
+          <t>Mellan Öster-Vike och Sjömyran, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>573169.9361146218</v>
+        <v>573419.838285814</v>
       </c>
       <c r="R3" t="n">
-        <v>7017540.184384095</v>
+        <v>7017474.295048638</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -890,7 +889,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2015-08-30</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -900,7 +899,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2015-08-30</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -917,25 +916,42 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>1 substratenheter</t>
+        </is>
+      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Magnus Johansson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Magnus Johansson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104427596</v>
+        <v>104427604</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>78570</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -948,21 +964,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1045,10 +1061,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>55773928</v>
+        <v>104427596</v>
       </c>
       <c r="B5" t="n">
-        <v>95717</v>
+        <v>78569</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1057,41 +1073,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220686</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kambräken</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Blechnum spicant</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Roth</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Mellan Öster-Vike och Sjömyran, Ång</t>
+          <t>Sollefteå, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>573419.838285814</v>
+        <v>573169.9361146218</v>
       </c>
       <c r="R5" t="n">
-        <v>7017474.295048638</v>
+        <v>7017540.184384095</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1115,7 +1132,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2015-08-30</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1125,7 +1142,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2015-08-30</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1142,35 +1159,18 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AN5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>1 substratenheter</t>
-        </is>
-      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Magnus Johansson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Magnus Johansson</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
